--- a/filmInfo.xlsx
+++ b/filmInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="127">
   <si>
     <t>会社名</t>
     <rPh sb="0" eb="2">
@@ -545,14 +545,6 @@
   </si>
   <si>
     <t>Lomography</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1018,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1026,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1069,6 +1061,9 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -5136,8 +5131,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>126</v>
+      <c r="A149">
+        <v>1</v>
       </c>
       <c r="B149" s="5">
         <f t="shared" si="5"/>
@@ -5165,8 +5160,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>127</v>
+      <c r="A150">
+        <v>1</v>
       </c>
       <c r="B150" s="5">
         <f t="shared" si="5"/>

--- a/filmInfo.xlsx
+++ b/filmInfo.xlsx
@@ -560,7 +560,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="00000"/>
+    <numFmt numFmtId="176" formatCode="00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,6 +1095,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="5">
         <f>IF(C3&lt;&gt;"",B2+1,"")</f>
         <v>2</v>
@@ -1127,6 +1130,9 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B67" si="1">IF(C4&lt;&gt;"",B3+1,"")</f>
         <v>3</v>
@@ -1159,6 +1165,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1191,6 +1200,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1223,6 +1235,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1255,6 +1270,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1287,6 +1305,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1319,6 +1340,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1351,6 +1375,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1383,6 +1410,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1415,6 +1445,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
       <c r="B13" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1447,6 +1480,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1479,6 +1515,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
       <c r="B15" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1511,6 +1550,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1542,7 +1584,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1574,7 +1619,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
       <c r="B18" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1606,7 +1654,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
       <c r="B19" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1638,7 +1689,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
       <c r="B20" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1670,7 +1724,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
       <c r="B21" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1702,7 +1759,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1734,7 +1791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1766,7 +1823,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1798,7 +1855,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1830,7 +1887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1862,7 +1919,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1894,7 +1951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1926,7 +1983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1958,7 +2015,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1990,7 +2047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2022,7 +2079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <f t="shared" si="1"/>
         <v>31</v>

--- a/filmInfo.xlsx
+++ b/filmInfo.xlsx
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1760,6 +1760,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
       <c r="B22" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1792,6 +1795,9 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
       <c r="B23" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1824,6 +1830,9 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
       <c r="B24" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1856,6 +1865,9 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
       <c r="B25" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1888,6 +1900,9 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
       <c r="B26" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1920,6 +1935,9 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
       <c r="B27" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1952,6 +1970,9 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
       <c r="B28" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1984,6 +2005,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
       <c r="B29" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -2016,6 +2040,9 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
       <c r="B30" s="5">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -2048,6 +2075,9 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
       <c r="B31" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2080,6 +2110,9 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
       <c r="B32" s="5">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -2111,7 +2144,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
       <c r="B33" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -2143,7 +2179,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
       <c r="B34" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -2175,7 +2214,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
       <c r="B35" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -2207,7 +2249,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
       <c r="B36" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2239,7 +2284,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
       <c r="B37" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2271,7 +2319,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
       <c r="B38" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2303,7 +2354,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
       <c r="B39" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2335,7 +2389,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
       <c r="B40" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2367,7 +2424,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
       <c r="B41" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2399,7 +2459,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
       <c r="B42" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2431,7 +2494,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
       <c r="B43" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2457,7 +2523,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
       <c r="B44" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2483,7 +2552,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
       <c r="B45" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2509,7 +2581,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
       <c r="B46" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2535,7 +2610,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
       <c r="B47" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2561,7 +2639,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
       <c r="B48" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2587,7 +2668,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
       <c r="B49" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2613,7 +2697,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
       <c r="B50" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2639,7 +2726,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
       <c r="B51" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2665,7 +2755,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
       <c r="B52" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2691,7 +2784,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
       <c r="B53" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2717,7 +2813,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
       <c r="B54" s="5">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2743,7 +2842,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
       <c r="B55" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2769,7 +2871,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
       <c r="B56" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2795,7 +2900,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
       <c r="B57" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2821,7 +2929,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
       <c r="B58" s="5">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2847,7 +2958,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
       <c r="B59" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2873,7 +2987,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
       <c r="B60" s="5">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2899,7 +3016,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
       <c r="B61" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2925,7 +3045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2951,7 +3071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="5">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2977,7 +3097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="5">
         <f t="shared" si="1"/>
         <v>63</v>

--- a/filmInfo.xlsx
+++ b/filmInfo.xlsx
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A81" sqref="A61:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3046,6 +3046,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
       <c r="B62" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -3072,6 +3075,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
       <c r="B63" s="5">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -3098,6 +3104,9 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
       <c r="B64" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -3123,7 +3132,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
       <c r="B65" s="5">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -3149,7 +3161,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
       <c r="B66" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -3175,7 +3190,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
       <c r="B67" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -3201,7 +3219,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
       <c r="B68" s="5">
         <f t="shared" ref="B68:B131" si="3">IF(C68&lt;&gt;"",B67+1,"")</f>
         <v>67</v>
@@ -3227,7 +3248,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
       <c r="B69" s="5">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -3253,7 +3277,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
       <c r="B70" s="5">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -3279,7 +3306,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
       <c r="B71" s="5">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -3305,7 +3335,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
       <c r="B72" s="5">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -3331,7 +3364,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
       <c r="B73" s="5">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -3357,7 +3393,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
       <c r="B74" s="5">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -3383,7 +3422,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
       <c r="B75" s="5">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -3409,7 +3451,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
       <c r="B76" s="5">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -3435,7 +3480,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1</v>
+      </c>
       <c r="B77" s="5">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -3461,7 +3509,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1</v>
+      </c>
       <c r="B78" s="5">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -3487,7 +3538,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
       <c r="B79" s="5">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -3513,7 +3567,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1</v>
+      </c>
       <c r="B80" s="5">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -3539,7 +3596,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1</v>
+      </c>
       <c r="B81" s="5">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -3565,7 +3625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" s="5">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -3591,7 +3651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B83" s="5">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -3617,7 +3677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B84" s="5">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -3643,7 +3703,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" s="5">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -3669,7 +3729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" s="5">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -3695,7 +3755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" s="5">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -3720,7 +3780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B88" s="5">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -3746,7 +3806,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B89" s="5">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -3772,7 +3832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" s="5">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -3798,7 +3858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -3824,7 +3884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" s="5">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -3849,7 +3909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" s="5">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -3874,7 +3934,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B94" s="5">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -3900,7 +3960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B95" s="5">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -3926,7 +3986,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B96" s="5">
         <f t="shared" si="3"/>
         <v>95</v>

--- a/filmInfo.xlsx
+++ b/filmInfo.xlsx
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A81" sqref="A61:A81"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A121" sqref="A101:A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3626,6 +3626,9 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
       <c r="B82" s="5">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -3652,6 +3655,9 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
       <c r="B83" s="5">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -3678,6 +3684,9 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1</v>
+      </c>
       <c r="B84" s="5">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -3704,6 +3713,9 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
       <c r="B85" s="5">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -3730,6 +3742,9 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
       <c r="B86" s="5">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -3756,6 +3771,9 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
       <c r="B87" s="5">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -3781,6 +3799,9 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1</v>
+      </c>
       <c r="B88" s="5">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -3807,6 +3828,9 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
       <c r="B89" s="5">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -3833,6 +3857,9 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
       <c r="B90" s="5">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -3859,6 +3886,9 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
       <c r="B91" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -3885,6 +3915,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
       <c r="B92" s="5">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -3910,6 +3943,9 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
       <c r="B93" s="5">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -3935,6 +3971,9 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
       <c r="B94" s="5">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -3961,6 +4000,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1</v>
+      </c>
       <c r="B95" s="5">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -3987,6 +4029,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1</v>
+      </c>
       <c r="B96" s="5">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -4012,7 +4057,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1</v>
+      </c>
       <c r="B97" s="5">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -4038,7 +4086,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
       <c r="B98" s="5">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -4064,7 +4115,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1</v>
+      </c>
       <c r="B99" s="5">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -4090,7 +4144,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1</v>
+      </c>
       <c r="B100" s="5">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -4116,7 +4173,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1</v>
+      </c>
       <c r="B101" s="5">
         <f>IF(C101&lt;&gt;"",B100+1,"")</f>
         <v>100</v>
@@ -4142,7 +4202,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1</v>
+      </c>
       <c r="B102" s="5">
         <f>IF(C102&lt;&gt;"",B101+1,"")</f>
         <v>101</v>
@@ -4168,7 +4231,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1</v>
+      </c>
       <c r="B103" s="5">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -4194,7 +4260,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1</v>
+      </c>
       <c r="B104" s="5">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -4220,7 +4289,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
       <c r="B105" s="5">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -4246,7 +4318,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1</v>
+      </c>
       <c r="B106" s="5">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -4272,7 +4347,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1</v>
+      </c>
       <c r="B107" s="5">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -4298,7 +4376,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1</v>
+      </c>
       <c r="B108" s="5">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -4324,7 +4405,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1</v>
+      </c>
       <c r="B109" s="5">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -4350,7 +4434,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1</v>
+      </c>
       <c r="B110" s="5">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -4376,7 +4463,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1</v>
+      </c>
       <c r="B111" s="5">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -4402,7 +4492,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1</v>
+      </c>
       <c r="B112" s="5">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -4428,7 +4521,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1</v>
+      </c>
       <c r="B113" s="5">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -4454,7 +4550,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1</v>
+      </c>
       <c r="B114" s="5">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -4480,7 +4579,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
       <c r="B115" s="5">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -4506,7 +4608,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1</v>
+      </c>
       <c r="B116" s="5">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -4532,7 +4637,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
       <c r="B117" s="5">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -4558,7 +4666,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
       <c r="B118" s="5">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -4584,7 +4695,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1</v>
+      </c>
       <c r="B119" s="5">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -4610,7 +4724,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1</v>
+      </c>
       <c r="B120" s="5">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -4636,7 +4753,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1</v>
+      </c>
       <c r="B121" s="5">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -4662,7 +4782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" s="5">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -4688,7 +4808,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" s="5">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -4714,7 +4834,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B124" s="5">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -4740,7 +4860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" s="5">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -4766,7 +4886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" s="5">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -4792,7 +4912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" s="5">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -4818,7 +4938,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="5">
         <f t="shared" si="3"/>
         <v>127</v>

--- a/filmInfo.xlsx
+++ b/filmInfo.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="127">
   <si>
     <t>会社名</t>
     <rPh sb="0" eb="2">
@@ -530,13 +530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←ここらへんから怪しいな…</t>
-    <rPh sb="8" eb="9">
-      <t>アヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Redscale_XR_35mm_ISO_50–200</t>
   </si>
   <si>
@@ -548,10 +541,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像化</t>
-    <rPh sb="0" eb="3">
-      <t>ガゾウカ</t>
-    </rPh>
+    <t>BERGGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pancro400</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -592,18 +586,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -674,9 +662,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,8 +998,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A121" sqref="A101:A121"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1025,9 +1016,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="A1" s="5"/>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1046,25 +1035,22 @@
       <c r="G1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="7"/>
+      <c r="L1" s="6"/>
       <c r="M1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1083,22 +1069,19 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f>IF(G2="","",ROUNDDOWN(SUM($G$2:$G2)/7+0.999+COUNTIF($F$2:$F2,"&lt;&gt;35mm"),0))</f>
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>IF(C3&lt;&gt;"",B2+1,"")</f>
         <v>2</v>
       </c>
@@ -1118,22 +1101,19 @@
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f>IF(G3="","",ROUNDDOWN(SUM($G$2:$G3)/7+0.999+COUNTIF($F$2:$F3,"&lt;&gt;35mm"),0))</f>
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B67" si="1">IF(C4&lt;&gt;"",B3+1,"")</f>
         <v>3</v>
       </c>
@@ -1153,22 +1133,19 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f>IF(G4="","",ROUNDDOWN(SUM($G$2:$G4)/7+0.999+COUNTIF($F$2:$F4,"&lt;&gt;35mm"),0))</f>
         <v>3</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -1188,22 +1165,19 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>IF(G5="","",ROUNDDOWN(SUM($G$2:$G5)/7+0.999+COUNTIF($F$2:$F5,"&lt;&gt;35mm"),0))</f>
         <v>3</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1223,22 +1197,19 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f>IF(G6="","",ROUNDDOWN(SUM($G$2:$G6)/7+0.999+COUNTIF($F$2:$F6,"&lt;&gt;35mm"),0))</f>
         <v>4</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1258,22 +1229,19 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f>IF(G7="","",ROUNDDOWN(SUM($G$2:$G7)/7+0.999+COUNTIF($F$2:$F7,"&lt;&gt;35mm"),0))</f>
         <v>5</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -1293,22 +1261,19 @@
       <c r="G8">
         <v>5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f>IF(G8="","",ROUNDDOWN(SUM($G$2:$G8)/7+0.999+COUNTIF($F$2:$F8,"&lt;&gt;35mm"),0))</f>
         <v>5</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1328,22 +1293,19 @@
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>IF(G9="","",ROUNDDOWN(SUM($G$2:$G9)/7+0.999+COUNTIF($F$2:$F9,"&lt;&gt;35mm"),0))</f>
         <v>6</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -1363,22 +1325,19 @@
       <c r="G10">
         <v>7</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f>IF(G10="","",ROUNDDOWN(SUM($G$2:$G10)/7+0.999+COUNTIF($F$2:$F10,"&lt;&gt;35mm"),0))</f>
         <v>7</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1398,22 +1357,19 @@
       <c r="G11">
         <v>7</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>IF(G11="","",ROUNDDOWN(SUM($G$2:$G11)/7+0.999+COUNTIF($F$2:$F11,"&lt;&gt;35mm"),0))</f>
         <v>8</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -1433,22 +1389,19 @@
       <c r="G12">
         <v>7</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f>IF(G12="","",ROUNDDOWN(SUM($G$2:$G12)/7+0.999+COUNTIF($F$2:$F12,"&lt;&gt;35mm"),0))</f>
         <v>9</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1468,22 +1421,19 @@
       <c r="G13">
         <v>7</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f>IF(G13="","",ROUNDDOWN(SUM($G$2:$G13)/7+0.999+COUNTIF($F$2:$F13,"&lt;&gt;35mm"),0))</f>
         <v>10</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -1503,22 +1453,19 @@
       <c r="G14">
         <v>6</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f>IF(G14="","",ROUNDDOWN(SUM($G$2:$G14)/7+0.999+COUNTIF($F$2:$F14,"&lt;&gt;35mm"),0))</f>
         <v>11</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -1538,22 +1485,19 @@
       <c r="G15">
         <v>7</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f>IF(G15="","",ROUNDDOWN(SUM($G$2:$G15)/7+0.999+COUNTIF($F$2:$F15,"&lt;&gt;35mm"),0))</f>
         <v>12</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1573,22 +1517,19 @@
       <c r="G16">
         <v>7</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f>IF(G16="","",ROUNDDOWN(SUM($G$2:$G16)/7+0.999+COUNTIF($F$2:$F16,"&lt;&gt;35mm"),0))</f>
         <v>13</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -1608,22 +1549,19 @@
       <c r="G17">
         <v>7</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f>IF(G17="","",ROUNDDOWN(SUM($G$2:$G17)/7+0.999+COUNTIF($F$2:$F17,"&lt;&gt;35mm"),0))</f>
         <v>14</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -1643,22 +1581,19 @@
       <c r="G18">
         <v>7</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f>IF(G18="","",ROUNDDOWN(SUM($G$2:$G18)/7+0.999+COUNTIF($F$2:$F18,"&lt;&gt;35mm"),0))</f>
         <v>15</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1678,22 +1613,19 @@
       <c r="G19">
         <v>7</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f>IF(G19="","",ROUNDDOWN(SUM($G$2:$G19)/7+0.999+COUNTIF($F$2:$F19,"&lt;&gt;35mm"),0))</f>
         <v>16</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -1713,22 +1645,19 @@
       <c r="G20">
         <v>6</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f>IF(G20="","",ROUNDDOWN(SUM($G$2:$G20)/7+0.999+COUNTIF($F$2:$F20,"&lt;&gt;35mm"),0))</f>
         <v>17</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1748,22 +1677,19 @@
       <c r="G21">
         <v>7</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f>IF(G21="","",ROUNDDOWN(SUM($G$2:$G21)/7+0.999+COUNTIF($F$2:$F21,"&lt;&gt;35mm"),0))</f>
         <v>18</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -1783,22 +1709,19 @@
       <c r="G22">
         <v>6</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f>IF(G22="","",ROUNDDOWN(SUM($G$2:$G22)/7+0.999+COUNTIF($F$2:$F22,"&lt;&gt;35mm"),0))</f>
         <v>19</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -1818,22 +1741,19 @@
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f>IF(G23="","",ROUNDDOWN(SUM($G$2:$G23)/7+0.999+COUNTIF($F$2:$F23,"&lt;&gt;35mm"),0))</f>
         <v>19</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -1853,22 +1773,19 @@
       <c r="G24">
         <v>5</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f>IF(G24="","",ROUNDDOWN(SUM($G$2:$G24)/7+0.999+COUNTIF($F$2:$F24,"&lt;&gt;35mm"),0))</f>
         <v>20</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="5">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -1888,22 +1805,19 @@
       <c r="G25">
         <v>5</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f>IF(G25="","",ROUNDDOWN(SUM($G$2:$G25)/7+0.999+COUNTIF($F$2:$F25,"&lt;&gt;35mm"),0))</f>
         <v>21</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1923,22 +1837,19 @@
       <c r="G26">
         <v>4</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f>IF(G26="","",ROUNDDOWN(SUM($G$2:$G26)/7+0.999+COUNTIF($F$2:$F26,"&lt;&gt;35mm"),0))</f>
         <v>21</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="4">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -1958,22 +1869,19 @@
       <c r="G27">
         <v>7</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f>IF(G27="","",ROUNDDOWN(SUM($G$2:$G27)/7+0.999+COUNTIF($F$2:$F27,"&lt;&gt;35mm"),0))</f>
         <v>22</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="4">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -1993,22 +1901,19 @@
       <c r="G28">
         <v>3</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f>IF(G28="","",ROUNDDOWN(SUM($G$2:$G28)/7+0.999+COUNTIF($F$2:$F28,"&lt;&gt;35mm"),0))</f>
         <v>23</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" s="5">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -2028,22 +1933,19 @@
       <c r="G29">
         <v>4</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f>IF(G29="","",ROUNDDOWN(SUM($G$2:$G29)/7+0.999+COUNTIF($F$2:$F29,"&lt;&gt;35mm"),0))</f>
         <v>23</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="4">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -2063,22 +1965,19 @@
       <c r="G30">
         <v>4</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f>IF(G30="","",ROUNDDOWN(SUM($G$2:$G30)/7+0.999+COUNTIF($F$2:$F30,"&lt;&gt;35mm"),0))</f>
         <v>24</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" s="5">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -2098,22 +1997,19 @@
       <c r="G31">
         <v>7</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f>IF(G31="","",ROUNDDOWN(SUM($G$2:$G31)/7+0.999+COUNTIF($F$2:$F31,"&lt;&gt;35mm"),0))</f>
         <v>25</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="5">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="4">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -2133,22 +2029,19 @@
       <c r="G32">
         <v>5</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f>IF(G32="","",ROUNDDOWN(SUM($G$2:$G32)/7+0.999+COUNTIF($F$2:$F32,"&lt;&gt;35mm"),0))</f>
         <v>26</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" s="5">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -2168,22 +2061,19 @@
       <c r="G33">
         <v>5</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f>IF(G33="","",ROUNDDOWN(SUM($G$2:$G33)/7+0.999+COUNTIF($F$2:$F33,"&lt;&gt;35mm"),0))</f>
         <v>26</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" s="5">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="4">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -2203,22 +2093,19 @@
       <c r="G34">
         <v>4</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f>IF(G34="","",ROUNDDOWN(SUM($G$2:$G34)/7+0.999+COUNTIF($F$2:$F34,"&lt;&gt;35mm"),0))</f>
         <v>27</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="5">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="4">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -2238,22 +2125,19 @@
       <c r="G35">
         <v>5</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f>IF(G35="","",ROUNDDOWN(SUM($G$2:$G35)/7+0.999+COUNTIF($F$2:$F35,"&lt;&gt;35mm"),0))</f>
         <v>28</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" s="5">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="4">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -2273,22 +2157,19 @@
       <c r="G36">
         <v>3</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <f>IF(G36="","",ROUNDDOWN(SUM($G$2:$G36)/7+0.999+COUNTIF($F$2:$F36,"&lt;&gt;35mm"),0))</f>
         <v>28</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" s="5">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -2308,22 +2189,19 @@
       <c r="G37">
         <v>5</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <f>IF(G37="","",ROUNDDOWN(SUM($G$2:$G37)/7+0.999+COUNTIF($F$2:$F37,"&lt;&gt;35mm"),0))</f>
         <v>29</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="5">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="4">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
@@ -2343,22 +2221,19 @@
       <c r="G38">
         <v>7</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <f>IF(G38="","",ROUNDDOWN(SUM($G$2:$G38)/7+0.999+COUNTIF($F$2:$F38,"&lt;&gt;35mm"),0))</f>
         <v>30</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" s="5">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
@@ -2378,22 +2253,19 @@
       <c r="G39">
         <v>7</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="3">
         <f>IF(G39="","",ROUNDDOWN(SUM($G$2:$G39)/7+0.999+COUNTIF($F$2:$F39,"&lt;&gt;35mm"),0))</f>
         <v>31</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" s="5">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="4">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -2413,22 +2285,19 @@
       <c r="G40">
         <v>4</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <f>IF(G40="","",ROUNDDOWN(SUM($G$2:$G40)/7+0.999+COUNTIF($F$2:$F40,"&lt;&gt;35mm"),0))</f>
         <v>31</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" s="5">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -2448,22 +2317,19 @@
       <c r="G41">
         <v>7</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <f>IF(G41="","",ROUNDDOWN(SUM($G$2:$G41)/7+0.999+COUNTIF($F$2:$F41,"&lt;&gt;35mm"),0))</f>
         <v>32</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="K41" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" s="5">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="4">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
@@ -2483,22 +2349,19 @@
       <c r="G42">
         <v>4</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="3">
         <f>IF(G42="","",ROUNDDOWN(SUM($G$2:$G42)/7+0.999+COUNTIF($F$2:$F42,"&lt;&gt;35mm"),0))</f>
         <v>33</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K42" s="13" t="s">
+      <c r="J42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" s="5">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="4">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -2518,16 +2381,19 @@
       <c r="G43">
         <v>7</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <f>IF(G43="","",ROUNDDOWN(SUM($G$2:$G43)/7+0.999+COUNTIF($F$2:$F43,"&lt;&gt;35mm"),0))</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="J43" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="4">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -2547,16 +2413,13 @@
       <c r="G44">
         <v>5</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <f>IF(G44="","",ROUNDDOWN(SUM($G$2:$G44)/7+0.999+COUNTIF($F$2:$F44,"&lt;&gt;35mm"),0))</f>
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" s="5">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -2576,16 +2439,13 @@
       <c r="G45">
         <v>4</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="3">
         <f>IF(G45="","",ROUNDDOWN(SUM($G$2:$G45)/7+0.999+COUNTIF($F$2:$F45,"&lt;&gt;35mm"),0))</f>
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" s="5">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="4">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -2605,16 +2465,13 @@
       <c r="G46">
         <v>4</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <f>IF(G46="","",ROUNDDOWN(SUM($G$2:$G46)/7+0.999+COUNTIF($F$2:$F46,"&lt;&gt;35mm"),0))</f>
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" s="5">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="4">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
@@ -2634,16 +2491,13 @@
       <c r="G47">
         <v>7</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="3">
         <f>IF(G47="","",ROUNDDOWN(SUM($G$2:$G47)/7+0.999+COUNTIF($F$2:$F47,"&lt;&gt;35mm"),0))</f>
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" s="5">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="4">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
@@ -2663,16 +2517,13 @@
       <c r="G48">
         <v>4</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <f>IF(G48="","",ROUNDDOWN(SUM($G$2:$G48)/7+0.999+COUNTIF($F$2:$F48,"&lt;&gt;35mm"),0))</f>
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" s="5">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="4">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -2692,16 +2543,13 @@
       <c r="G49">
         <v>7</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <f>IF(G49="","",ROUNDDOWN(SUM($G$2:$G49)/7+0.999+COUNTIF($F$2:$F49,"&lt;&gt;35mm"),0))</f>
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" s="5">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
@@ -2721,16 +2569,13 @@
       <c r="G50">
         <v>7</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <f>IF(G50="","",ROUNDDOWN(SUM($G$2:$G50)/7+0.999+COUNTIF($F$2:$F50,"&lt;&gt;35mm"),0))</f>
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" s="5">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -2750,16 +2595,13 @@
       <c r="G51">
         <v>4</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <f>IF(G51="","",ROUNDDOWN(SUM($G$2:$G51)/7+0.999+COUNTIF($F$2:$F51,"&lt;&gt;35mm"),0))</f>
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" s="5">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="4">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
@@ -2779,16 +2621,13 @@
       <c r="G52">
         <v>5</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <f>IF(G52="","",ROUNDDOWN(SUM($G$2:$G52)/7+0.999+COUNTIF($F$2:$F52,"&lt;&gt;35mm"),0))</f>
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" s="5">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="4">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -2808,16 +2647,13 @@
       <c r="G53">
         <v>4</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <f>IF(G53="","",ROUNDDOWN(SUM($G$2:$G53)/7+0.999+COUNTIF($F$2:$F53,"&lt;&gt;35mm"),0))</f>
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" s="5">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="4">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -2837,16 +2673,13 @@
       <c r="G54">
         <v>7</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="3">
         <f>IF(G54="","",ROUNDDOWN(SUM($G$2:$G54)/7+0.999+COUNTIF($F$2:$F54,"&lt;&gt;35mm"),0))</f>
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" s="5">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="4">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -2866,16 +2699,13 @@
       <c r="G55">
         <v>4</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <f>IF(G55="","",ROUNDDOWN(SUM($G$2:$G55)/7+0.999+COUNTIF($F$2:$F55,"&lt;&gt;35mm"),0))</f>
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" s="5">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="4">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -2895,16 +2725,13 @@
       <c r="G56">
         <v>7</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3">
         <f>IF(G56="","",ROUNDDOWN(SUM($G$2:$G56)/7+0.999+COUNTIF($F$2:$F56,"&lt;&gt;35mm"),0))</f>
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" s="5">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="4">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
@@ -2924,16 +2751,13 @@
       <c r="G57">
         <v>4</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="3">
         <f>IF(G57="","",ROUNDDOWN(SUM($G$2:$G57)/7+0.999+COUNTIF($F$2:$F57,"&lt;&gt;35mm"),0))</f>
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" s="5">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="4">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
@@ -2953,16 +2777,13 @@
       <c r="G58">
         <v>6</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="3">
         <f>IF(G58="","",ROUNDDOWN(SUM($G$2:$G58)/7+0.999+COUNTIF($F$2:$F58,"&lt;&gt;35mm"),0))</f>
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" s="5">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="4">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
@@ -2982,16 +2803,13 @@
       <c r="G59">
         <v>7</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <f>IF(G59="","",ROUNDDOWN(SUM($G$2:$G59)/7+0.999+COUNTIF($F$2:$F59,"&lt;&gt;35mm"),0))</f>
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" s="5">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="4">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
@@ -3011,16 +2829,13 @@
       <c r="G60">
         <v>4</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <f>IF(G60="","",ROUNDDOWN(SUM($G$2:$G60)/7+0.999+COUNTIF($F$2:$F60,"&lt;&gt;35mm"),0))</f>
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" s="5">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3040,16 +2855,13 @@
       <c r="G61">
         <v>4</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <f>IF(G61="","",ROUNDDOWN(SUM($G$2:$G61)/7+0.999+COUNTIF($F$2:$F61,"&lt;&gt;35mm"),0))</f>
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" s="5">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="4">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
@@ -3069,16 +2881,13 @@
       <c r="G62">
         <v>6</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="3">
         <f>IF(G62="","",ROUNDDOWN(SUM($G$2:$G62)/7+0.999+COUNTIF($F$2:$F62,"&lt;&gt;35mm"),0))</f>
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" s="5">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
@@ -3098,16 +2907,13 @@
       <c r="G63">
         <v>3</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="3">
         <f>IF(G63="","",ROUNDDOWN(SUM($G$2:$G63)/7+0.999+COUNTIF($F$2:$F63,"&lt;&gt;35mm"),0))</f>
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" s="5">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="4">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
@@ -3127,16 +2933,13 @@
       <c r="G64">
         <v>7</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3">
         <f>IF(G64="","",ROUNDDOWN(SUM($G$2:$G64)/7+0.999+COUNTIF($F$2:$F64,"&lt;&gt;35mm"),0))</f>
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" s="5">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="4">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
@@ -3156,16 +2959,13 @@
       <c r="G65">
         <v>3</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="3">
         <f>IF(G65="","",ROUNDDOWN(SUM($G$2:$G65)/7+0.999+COUNTIF($F$2:$F65,"&lt;&gt;35mm"),0))</f>
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" s="5">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="4">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -3185,16 +2985,13 @@
       <c r="G66">
         <v>4</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="3">
         <f>IF(G66="","",ROUNDDOWN(SUM($G$2:$G66)/7+0.999+COUNTIF($F$2:$F66,"&lt;&gt;35mm"),0))</f>
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" s="5">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="4">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -3214,16 +3011,13 @@
       <c r="G67">
         <v>7</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="3">
         <f>IF(G67="","",ROUNDDOWN(SUM($G$2:$G67)/7+0.999+COUNTIF($F$2:$F67,"&lt;&gt;35mm"),0))</f>
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" s="5">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="4">
         <f t="shared" ref="B68:B131" si="3">IF(C68&lt;&gt;"",B67+1,"")</f>
         <v>67</v>
       </c>
@@ -3243,16 +3037,13 @@
       <c r="G68">
         <v>4</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="3">
         <f>IF(G68="","",ROUNDDOWN(SUM($G$2:$G68)/7+0.999+COUNTIF($F$2:$F68,"&lt;&gt;35mm"),0))</f>
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" s="5">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="4">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
@@ -3272,16 +3063,13 @@
       <c r="G69">
         <v>7</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="3">
         <f>IF(G69="","",ROUNDDOWN(SUM($G$2:$G69)/7+0.999+COUNTIF($F$2:$F69,"&lt;&gt;35mm"),0))</f>
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" s="5">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="4">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
@@ -3301,16 +3089,13 @@
       <c r="G70">
         <v>4</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="3">
         <f>IF(G70="","",ROUNDDOWN(SUM($G$2:$G70)/7+0.999+COUNTIF($F$2:$F70,"&lt;&gt;35mm"),0))</f>
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" s="5">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="4">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
@@ -3330,16 +3115,13 @@
       <c r="G71">
         <v>5</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="3">
         <f>IF(G71="","",ROUNDDOWN(SUM($G$2:$G71)/7+0.999+COUNTIF($F$2:$F71,"&lt;&gt;35mm"),0))</f>
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" s="5">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="4">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
@@ -3359,16 +3141,13 @@
       <c r="G72">
         <v>4</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="3">
         <f>IF(G72="","",ROUNDDOWN(SUM($G$2:$G72)/7+0.999+COUNTIF($F$2:$F72,"&lt;&gt;35mm"),0))</f>
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" s="5">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="4">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
@@ -3388,16 +3167,13 @@
       <c r="G73">
         <v>4</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="3">
         <f>IF(G73="","",ROUNDDOWN(SUM($G$2:$G73)/7+0.999+COUNTIF($F$2:$F73,"&lt;&gt;35mm"),0))</f>
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" s="5">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="4">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
@@ -3417,16 +3193,13 @@
       <c r="G74">
         <v>5</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="3">
         <f>IF(G74="","",ROUNDDOWN(SUM($G$2:$G74)/7+0.999+COUNTIF($F$2:$F74,"&lt;&gt;35mm"),0))</f>
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" s="5">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="4">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
@@ -3446,16 +3219,13 @@
       <c r="G75">
         <v>7</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="3">
         <f>IF(G75="","",ROUNDDOWN(SUM($G$2:$G75)/7+0.999+COUNTIF($F$2:$F75,"&lt;&gt;35mm"),0))</f>
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" s="5">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="4">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
@@ -3475,16 +3245,13 @@
       <c r="G76">
         <v>7</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="3">
         <f>IF(G76="","",ROUNDDOWN(SUM($G$2:$G76)/7+0.999+COUNTIF($F$2:$F76,"&lt;&gt;35mm"),0))</f>
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" s="5">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="4">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
@@ -3504,16 +3271,13 @@
       <c r="G77">
         <v>5</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="3">
         <f>IF(G77="","",ROUNDDOWN(SUM($G$2:$G77)/7+0.999+COUNTIF($F$2:$F77,"&lt;&gt;35mm"),0))</f>
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" s="5">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="4">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
@@ -3533,16 +3297,13 @@
       <c r="G78">
         <v>7</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="3">
         <f>IF(G78="","",ROUNDDOWN(SUM($G$2:$G78)/7+0.999+COUNTIF($F$2:$F78,"&lt;&gt;35mm"),0))</f>
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79" s="5">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="4">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
@@ -3562,16 +3323,13 @@
       <c r="G79">
         <v>7</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="3">
         <f>IF(G79="","",ROUNDDOWN(SUM($G$2:$G79)/7+0.999+COUNTIF($F$2:$F79,"&lt;&gt;35mm"),0))</f>
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80" s="5">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="4">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
@@ -3591,16 +3349,13 @@
       <c r="G80">
         <v>5</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="3">
         <f>IF(G80="","",ROUNDDOWN(SUM($G$2:$G80)/7+0.999+COUNTIF($F$2:$F80,"&lt;&gt;35mm"),0))</f>
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81" s="5">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="4">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
@@ -3620,16 +3375,13 @@
       <c r="G81">
         <v>4</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="3">
         <f>IF(G81="","",ROUNDDOWN(SUM($G$2:$G81)/7+0.999+COUNTIF($F$2:$F81,"&lt;&gt;35mm"),0))</f>
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82" s="5">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="4">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
@@ -3649,16 +3401,13 @@
       <c r="G82">
         <v>7</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="3">
         <f>IF(G82="","",ROUNDDOWN(SUM($G$2:$G82)/7+0.999+COUNTIF($F$2:$F82,"&lt;&gt;35mm"),0))</f>
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" s="5">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="4">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
@@ -3678,16 +3427,13 @@
       <c r="G83">
         <v>7</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="3">
         <f>IF(G83="","",ROUNDDOWN(SUM($G$2:$G83)/7+0.999+COUNTIF($F$2:$F83,"&lt;&gt;35mm"),0))</f>
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" s="5">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="4">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
@@ -3707,16 +3453,13 @@
       <c r="G84">
         <v>5</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="3">
         <f>IF(G84="","",ROUNDDOWN(SUM($G$2:$G84)/7+0.999+COUNTIF($F$2:$F84,"&lt;&gt;35mm"),0))</f>
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" s="5">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="4">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
@@ -3736,16 +3479,13 @@
       <c r="G85">
         <v>4</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="3">
         <f>IF(G85="","",ROUNDDOWN(SUM($G$2:$G85)/7+0.999+COUNTIF($F$2:$F85,"&lt;&gt;35mm"),0))</f>
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" s="5">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="4">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
@@ -3765,16 +3505,13 @@
       <c r="G86" t="s">
         <v>112</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="3">
         <f>IF(G86="","",ROUNDDOWN(SUM($G$2:$G86)/7+0.999+COUNTIF($F$2:$F86,"&lt;&gt;35mm"),0))</f>
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" s="5">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="4">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
@@ -3794,15 +3531,12 @@
       <c r="G87">
         <v>4</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" s="5">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="4">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
@@ -3822,16 +3556,13 @@
       <c r="G88">
         <v>7</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="3">
         <f>IF(G88="","",ROUNDDOWN(SUM($G$2:$G88)/7+0.999+COUNTIF($F$2:$F88,"&lt;&gt;35mm"),0))</f>
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" s="5">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="4">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
@@ -3851,16 +3582,13 @@
       <c r="G89">
         <v>5</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="3">
         <f>IF(G89="","",ROUNDDOWN(SUM($G$2:$G89)/7+0.999+COUNTIF($F$2:$F89,"&lt;&gt;35mm"),0))</f>
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" s="5">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="4">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
@@ -3880,16 +3608,13 @@
       <c r="G90">
         <v>7</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="3">
         <f>IF(G90="","",ROUNDDOWN(SUM($G$2:$G90)/7+0.999+COUNTIF($F$2:$F90,"&lt;&gt;35mm"),0))</f>
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91" s="5">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="4">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
@@ -3909,16 +3634,13 @@
       <c r="G91">
         <v>6</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <f>IF(G91="","",ROUNDDOWN(SUM($G$2:$G91)/7+0.999+COUNTIF($F$2:$F91,"&lt;&gt;35mm"),0))</f>
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" s="5">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="4">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
@@ -3938,15 +3660,12 @@
       <c r="G92">
         <v>7</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H92" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93" s="5">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="4">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
@@ -3966,15 +3685,12 @@
       <c r="G93" t="s">
         <v>112</v>
       </c>
-      <c r="H93" s="4">
+      <c r="H93" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94" s="5">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="4">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
@@ -3994,16 +3710,13 @@
       <c r="G94">
         <v>6</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="3">
         <f>IF(G94="","",ROUNDDOWN(SUM($G$2:$G94)/7+0.999+COUNTIF($F$2:$F94,"&lt;&gt;35mm"),0))</f>
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95" s="5">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="4">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
@@ -4023,16 +3736,13 @@
       <c r="G95">
         <v>6</v>
       </c>
-      <c r="H95" s="4">
+      <c r="H95" s="3">
         <f>IF(G95="","",ROUNDDOWN(SUM($G$2:$G95)/7+0.999+COUNTIF($F$2:$F95,"&lt;&gt;35mm"),0))</f>
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96" s="5">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="4">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
@@ -4052,16 +3762,13 @@
       <c r="G96">
         <v>3</v>
       </c>
-      <c r="H96" s="4">
+      <c r="H96" s="3">
         <f>IF(G96="","",ROUNDDOWN(SUM($G$2:$G96)/7+0.999+COUNTIF($F$2:$F96,"&lt;&gt;35mm"),0))</f>
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97" s="5">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" s="4">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
@@ -4081,16 +3788,13 @@
       <c r="G97">
         <v>7</v>
       </c>
-      <c r="H97" s="4">
+      <c r="H97" s="3">
         <f>IF(G97="","",ROUNDDOWN(SUM($G$2:$G97)/7+0.999+COUNTIF($F$2:$F97,"&lt;&gt;35mm"),0))</f>
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" s="5">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="4">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
@@ -4110,16 +3814,13 @@
       <c r="G98">
         <v>7</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="3">
         <f>IF(G98="","",ROUNDDOWN(SUM($G$2:$G98)/7+0.999+COUNTIF($F$2:$F98,"&lt;&gt;35mm"),0))</f>
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99" s="5">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="4">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
@@ -4139,16 +3840,13 @@
       <c r="G99">
         <v>7</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="3">
         <f>IF(G99="","",ROUNDDOWN(SUM($G$2:$G99)/7+0.999+COUNTIF($F$2:$F99,"&lt;&gt;35mm"),0))</f>
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100" s="5">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="4">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
@@ -4168,16 +3866,13 @@
       <c r="G100">
         <v>5</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H100" s="3">
         <f>IF(G100="","",ROUNDDOWN(SUM($G$2:$G100)/7+0.999+COUNTIF($F$2:$F100,"&lt;&gt;35mm"),0))</f>
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101" s="5">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="4">
         <f>IF(C101&lt;&gt;"",B100+1,"")</f>
         <v>100</v>
       </c>
@@ -4197,16 +3892,13 @@
       <c r="G101">
         <v>6</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H101" s="3">
         <f>IF(G101="","",ROUNDDOWN(SUM($G$2:$G101)/7+0.999+COUNTIF($F$2:$F101,"&lt;&gt;35mm"),0))</f>
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102" s="5">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="4">
         <f>IF(C102&lt;&gt;"",B101+1,"")</f>
         <v>101</v>
       </c>
@@ -4226,16 +3918,13 @@
       <c r="G102">
         <v>7</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H102" s="3">
         <f>IF(G102="","",ROUNDDOWN(SUM($G$2:$G102)/7+0.999+COUNTIF($F$2:$F102,"&lt;&gt;35mm"),0))</f>
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103" s="5">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="4">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
@@ -4255,16 +3944,13 @@
       <c r="G103">
         <v>7</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H103" s="3">
         <f>IF(G103="","",ROUNDDOWN(SUM($G$2:$G103)/7+0.999+COUNTIF($F$2:$F103,"&lt;&gt;35mm"),0))</f>
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104" s="5">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" s="4">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
@@ -4284,16 +3970,13 @@
       <c r="G104">
         <v>7</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H104" s="3">
         <f>IF(G104="","",ROUNDDOWN(SUM($G$2:$G104)/7+0.999+COUNTIF($F$2:$F104,"&lt;&gt;35mm"),0))</f>
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105" s="5">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="4">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
@@ -4313,16 +3996,13 @@
       <c r="G105">
         <v>4</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H105" s="3">
         <f>IF(G105="","",ROUNDDOWN(SUM($G$2:$G105)/7+0.999+COUNTIF($F$2:$F105,"&lt;&gt;35mm"),0))</f>
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106" s="5">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="4">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
@@ -4342,16 +4022,13 @@
       <c r="G106">
         <v>5</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="3">
         <f>IF(G106="","",ROUNDDOWN(SUM($G$2:$G106)/7+0.999+COUNTIF($F$2:$F106,"&lt;&gt;35mm"),0))</f>
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107" s="5">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="4">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
@@ -4371,16 +4048,13 @@
       <c r="G107">
         <v>4</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H107" s="3">
         <f>IF(G107="","",ROUNDDOWN(SUM($G$2:$G107)/7+0.999+COUNTIF($F$2:$F107,"&lt;&gt;35mm"),0))</f>
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108" s="5">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="4">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
@@ -4400,16 +4074,13 @@
       <c r="G108">
         <v>7</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H108" s="3">
         <f>IF(G108="","",ROUNDDOWN(SUM($G$2:$G108)/7+0.999+COUNTIF($F$2:$F108,"&lt;&gt;35mm"),0))</f>
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109" s="5">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="4">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
@@ -4429,16 +4100,13 @@
       <c r="G109">
         <v>7</v>
       </c>
-      <c r="H109" s="4">
+      <c r="H109" s="3">
         <f>IF(G109="","",ROUNDDOWN(SUM($G$2:$G109)/7+0.999+COUNTIF($F$2:$F109,"&lt;&gt;35mm"),0))</f>
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110" s="5">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="4">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
@@ -4458,16 +4126,13 @@
       <c r="G110">
         <v>4</v>
       </c>
-      <c r="H110" s="4">
+      <c r="H110" s="3">
         <f>IF(G110="","",ROUNDDOWN(SUM($G$2:$G110)/7+0.999+COUNTIF($F$2:$F110,"&lt;&gt;35mm"),0))</f>
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111" s="5">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" s="4">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
@@ -4487,16 +4152,13 @@
       <c r="G111">
         <v>7</v>
       </c>
-      <c r="H111" s="4">
+      <c r="H111" s="3">
         <f>IF(G111="","",ROUNDDOWN(SUM($G$2:$G111)/7+0.999+COUNTIF($F$2:$F111,"&lt;&gt;35mm"),0))</f>
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>1</v>
-      </c>
-      <c r="B112" s="5">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="4">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
@@ -4516,16 +4178,13 @@
       <c r="G112">
         <v>7</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="3">
         <f>IF(G112="","",ROUNDDOWN(SUM($G$2:$G112)/7+0.999+COUNTIF($F$2:$F112,"&lt;&gt;35mm"),0))</f>
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113" s="5">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="4">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
@@ -4545,16 +4204,13 @@
       <c r="G113">
         <v>4</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="3">
         <f>IF(G113="","",ROUNDDOWN(SUM($G$2:$G113)/7+0.999+COUNTIF($F$2:$F113,"&lt;&gt;35mm"),0))</f>
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114" s="5">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="4">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
@@ -4574,16 +4230,13 @@
       <c r="G114" t="s">
         <v>112</v>
       </c>
-      <c r="H114" s="4">
+      <c r="H114" s="3">
         <f>IF(G114="","",ROUNDDOWN(SUM($G$2:$G114)/7+0.999+COUNTIF($F$2:$F114,"&lt;&gt;35mm"),0))</f>
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115" s="5">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="4">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
@@ -4603,16 +4256,13 @@
       <c r="G115">
         <v>7</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="3">
         <f>IF(G115="","",ROUNDDOWN(SUM($G$2:$G115)/7+0.999+COUNTIF($F$2:$F115,"&lt;&gt;35mm"),0))</f>
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" s="5">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="4">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
@@ -4632,16 +4282,13 @@
       <c r="G116">
         <v>7</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H116" s="3">
         <f>IF(G116="","",ROUNDDOWN(SUM($G$2:$G116)/7+0.999+COUNTIF($F$2:$F116,"&lt;&gt;35mm"),0))</f>
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117" s="5">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="4">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
@@ -4661,16 +4308,13 @@
       <c r="G117" t="s">
         <v>112</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="3">
         <f>IF(G117="","",ROUNDDOWN(SUM($G$2:$G117)/7+0.999+COUNTIF($F$2:$F117,"&lt;&gt;35mm"),0))</f>
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118" s="5">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="4">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
@@ -4690,16 +4334,13 @@
       <c r="G118">
         <v>7</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="3">
         <f>IF(G118="","",ROUNDDOWN(SUM($G$2:$G118)/7+0.999+COUNTIF($F$2:$F118,"&lt;&gt;35mm"),0))</f>
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119" s="5">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="4">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
@@ -4719,16 +4360,13 @@
       <c r="G119">
         <v>5</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="3">
         <f>IF(G119="","",ROUNDDOWN(SUM($G$2:$G119)/7+0.999+COUNTIF($F$2:$F119,"&lt;&gt;35mm"),0))</f>
         <v>95</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>1</v>
-      </c>
-      <c r="B120" s="5">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="4">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
@@ -4748,16 +4386,13 @@
       <c r="G120">
         <v>7</v>
       </c>
-      <c r="H120" s="4">
+      <c r="H120" s="3">
         <f>IF(G120="","",ROUNDDOWN(SUM($G$2:$G120)/7+0.999+COUNTIF($F$2:$F120,"&lt;&gt;35mm"),0))</f>
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>1</v>
-      </c>
-      <c r="B121" s="5">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="4">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
@@ -4777,13 +4412,13 @@
       <c r="G121">
         <v>7</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="3">
         <f>IF(G121="","",ROUNDDOWN(SUM($G$2:$G121)/7+0.999+COUNTIF($F$2:$F121,"&lt;&gt;35mm"),0))</f>
         <v>97</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="5">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="4">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
@@ -4803,13 +4438,13 @@
       <c r="G122">
         <v>7</v>
       </c>
-      <c r="H122" s="4">
+      <c r="H122" s="3">
         <f>IF(G122="","",ROUNDDOWN(SUM($G$2:$G122)/7+0.999+COUNTIF($F$2:$F122,"&lt;&gt;35mm"),0))</f>
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="5">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
@@ -4829,13 +4464,13 @@
       <c r="G123">
         <v>4</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="3">
         <f>IF(G123="","",ROUNDDOWN(SUM($G$2:$G123)/7+0.999+COUNTIF($F$2:$F123,"&lt;&gt;35mm"),0))</f>
         <v>99</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="5">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="4">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
@@ -4855,13 +4490,13 @@
       <c r="G124">
         <v>7</v>
       </c>
-      <c r="H124" s="4">
+      <c r="H124" s="3">
         <f>IF(G124="","",ROUNDDOWN(SUM($G$2:$G124)/7+0.999+COUNTIF($F$2:$F124,"&lt;&gt;35mm"),0))</f>
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="5">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
@@ -4881,13 +4516,13 @@
       <c r="G125">
         <v>5</v>
       </c>
-      <c r="H125" s="4">
+      <c r="H125" s="3">
         <f>IF(G125="","",ROUNDDOWN(SUM($G$2:$G125)/7+0.999+COUNTIF($F$2:$F125,"&lt;&gt;35mm"),0))</f>
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="5">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="4">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
@@ -4907,13 +4542,13 @@
       <c r="G126">
         <v>8</v>
       </c>
-      <c r="H126" s="4">
+      <c r="H126" s="3">
         <f>IF(G126="","",ROUNDDOWN(SUM($G$2:$G126)/7+0.999+COUNTIF($F$2:$F126,"&lt;&gt;35mm"),0))</f>
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="5">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="4">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
@@ -4933,13 +4568,13 @@
       <c r="G127">
         <v>4</v>
       </c>
-      <c r="H127" s="4">
+      <c r="H127" s="3">
         <f>IF(G127="","",ROUNDDOWN(SUM($G$2:$G127)/7+0.999+COUNTIF($F$2:$F127,"&lt;&gt;35mm"),0))</f>
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="5">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="4">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
@@ -4959,13 +4594,13 @@
       <c r="G128">
         <v>7</v>
       </c>
-      <c r="H128" s="4">
+      <c r="H128" s="3">
         <f>IF(G128="","",ROUNDDOWN(SUM($G$2:$G128)/7+0.999+COUNTIF($F$2:$F128,"&lt;&gt;35mm"),0))</f>
         <v>103</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="5">
+      <c r="B129" s="4">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
@@ -4985,13 +4620,13 @@
       <c r="G129">
         <v>4</v>
       </c>
-      <c r="H129" s="4">
+      <c r="H129" s="3">
         <f>IF(G129="","",ROUNDDOWN(SUM($G$2:$G129)/7+0.999+COUNTIF($F$2:$F129,"&lt;&gt;35mm"),0))</f>
         <v>104</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="5">
+      <c r="B130" s="4">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
@@ -5011,13 +4646,13 @@
       <c r="G130">
         <v>7</v>
       </c>
-      <c r="H130" s="4">
+      <c r="H130" s="3">
         <f>IF(G130="","",ROUNDDOWN(SUM($G$2:$G130)/7+0.999+COUNTIF($F$2:$F130,"&lt;&gt;35mm"),0))</f>
         <v>105</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="5">
+      <c r="B131" s="4">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
@@ -5037,13 +4672,13 @@
       <c r="G131">
         <v>7</v>
       </c>
-      <c r="H131" s="4">
+      <c r="H131" s="3">
         <f>IF(G131="","",ROUNDDOWN(SUM($G$2:$G131)/7+0.999+COUNTIF($F$2:$F131,"&lt;&gt;35mm"),0))</f>
         <v>106</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="5">
+      <c r="B132" s="4">
         <f t="shared" ref="B132:B195" si="5">IF(C132&lt;&gt;"",B131+1,"")</f>
         <v>131</v>
       </c>
@@ -5063,13 +4698,13 @@
       <c r="G132">
         <v>7</v>
       </c>
-      <c r="H132" s="4">
+      <c r="H132" s="3">
         <f>IF(G132="","",ROUNDDOWN(SUM($G$2:$G132)/7+0.999+COUNTIF($F$2:$F132,"&lt;&gt;35mm"),0))</f>
         <v>107</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="5">
+      <c r="B133" s="4">
         <f t="shared" si="5"/>
         <v>132</v>
       </c>
@@ -5089,13 +4724,13 @@
       <c r="G133">
         <v>7</v>
       </c>
-      <c r="H133" s="4">
+      <c r="H133" s="3">
         <f>IF(G133="","",ROUNDDOWN(SUM($G$2:$G133)/7+0.999+COUNTIF($F$2:$F133,"&lt;&gt;35mm"),0))</f>
         <v>108</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="5">
+      <c r="B134" s="4">
         <f t="shared" si="5"/>
         <v>133</v>
       </c>
@@ -5115,13 +4750,13 @@
       <c r="G134">
         <v>7</v>
       </c>
-      <c r="H134" s="4">
+      <c r="H134" s="3">
         <f>IF(G134="","",ROUNDDOWN(SUM($G$2:$G134)/7+0.999+COUNTIF($F$2:$F134,"&lt;&gt;35mm"),0))</f>
         <v>109</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="5">
+      <c r="B135" s="4">
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
@@ -5141,13 +4776,13 @@
       <c r="G135">
         <v>7</v>
       </c>
-      <c r="H135" s="4">
+      <c r="H135" s="3">
         <f>IF(G135="","",ROUNDDOWN(SUM($G$2:$G135)/7+0.999+COUNTIF($F$2:$F135,"&lt;&gt;35mm"),0))</f>
         <v>110</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="5">
+      <c r="B136" s="4">
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
@@ -5167,13 +4802,13 @@
       <c r="G136">
         <v>4</v>
       </c>
-      <c r="H136" s="4">
+      <c r="H136" s="3">
         <f>IF(G136="","",ROUNDDOWN(SUM($G$2:$G136)/7+0.999+COUNTIF($F$2:$F136,"&lt;&gt;35mm"),0))</f>
         <v>110</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="5">
+      <c r="B137" s="4">
         <f t="shared" si="5"/>
         <v>136</v>
       </c>
@@ -5193,13 +4828,13 @@
       <c r="G137">
         <v>4</v>
       </c>
-      <c r="H137" s="4">
+      <c r="H137" s="3">
         <f>IF(G137="","",ROUNDDOWN(SUM($G$2:$G137)/7+0.999+COUNTIF($F$2:$F138,"&lt;&gt;35mm"),0))</f>
         <v>111</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="5">
+      <c r="B138" s="4">
         <f t="shared" si="5"/>
         <v>137</v>
       </c>
@@ -5219,13 +4854,13 @@
       <c r="G138">
         <v>4</v>
       </c>
-      <c r="H138" s="4">
+      <c r="H138" s="3">
         <f>IF(G138="","",ROUNDDOWN(SUM($G$2:$G138)/7+0.999+COUNTIF($F$2:$F138,"&lt;&gt;35mm"),0))</f>
         <v>111</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="5">
+      <c r="B139" s="4">
         <f t="shared" si="5"/>
         <v>138</v>
       </c>
@@ -5245,13 +4880,13 @@
       <c r="G139">
         <v>4</v>
       </c>
-      <c r="H139" s="4">
+      <c r="H139" s="3">
         <f>IF(G139="","",ROUNDDOWN(SUM($G$2:$G139)/7+0.999+COUNTIF($F$2:$F139,"&lt;&gt;35mm"),0))</f>
         <v>112</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="5">
+      <c r="B140" s="4">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
@@ -5271,13 +4906,13 @@
       <c r="G140">
         <v>7</v>
       </c>
-      <c r="H140" s="4">
+      <c r="H140" s="3">
         <f>IF(G140="","",ROUNDDOWN(SUM($G$2:$G140)/7+0.999+COUNTIF($F$2:$F140,"&lt;&gt;35mm"),0))</f>
         <v>113</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="5">
+      <c r="B141" s="4">
         <f t="shared" si="5"/>
         <v>140</v>
       </c>
@@ -5297,13 +4932,13 @@
       <c r="G141">
         <v>7</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H141" s="3">
         <f>IF(G141="","",ROUNDDOWN(SUM($G$2:$G141)/7+0.999+COUNTIF($F$2:$F141,"&lt;&gt;35mm"),0))</f>
         <v>114</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B142" s="5">
+      <c r="B142" s="4">
         <f t="shared" si="5"/>
         <v>141</v>
       </c>
@@ -5323,13 +4958,13 @@
       <c r="G142">
         <v>4</v>
       </c>
-      <c r="H142" s="4">
+      <c r="H142" s="3">
         <f>IF(G142="","",ROUNDDOWN(SUM($G$2:$G142)/7+0.999+COUNTIF($F$2:$F142,"&lt;&gt;35mm"),0))</f>
         <v>115</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="5">
+      <c r="B143" s="4">
         <f t="shared" si="5"/>
         <v>142</v>
       </c>
@@ -5349,13 +4984,13 @@
       <c r="G143">
         <v>5</v>
       </c>
-      <c r="H143" s="4">
+      <c r="H143" s="3">
         <f>IF(G143="","",ROUNDDOWN(SUM($G$2:$G143)/7+0.999+COUNTIF($F$2:$F143,"&lt;&gt;35mm"),0))</f>
         <v>115</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="5">
+      <c r="B144" s="4">
         <f t="shared" si="5"/>
         <v>143</v>
       </c>
@@ -5375,13 +5010,13 @@
       <c r="G144">
         <v>7</v>
       </c>
-      <c r="H144" s="4">
+      <c r="H144" s="3">
         <f>IF(G144="","",ROUNDDOWN(SUM($G$2:$G144)/7+0.999+COUNTIF($F$2:$F144,"&lt;&gt;35mm"),0))</f>
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B145" s="5">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B145" s="4">
         <f t="shared" si="5"/>
         <v>144</v>
       </c>
@@ -5401,16 +5036,13 @@
       <c r="G145">
         <v>7</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="3">
         <f>IF(G145="","",ROUNDDOWN(SUM($G$2:$G145)/7+0.999+COUNTIF($F$2:$F145,"&lt;&gt;35mm"),0))</f>
         <v>117</v>
       </c>
-      <c r="I145" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B146" s="5">
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B146" s="4">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
@@ -5430,13 +5062,13 @@
       <c r="G146">
         <v>7</v>
       </c>
-      <c r="H146" s="4">
+      <c r="H146" s="3">
         <f>IF(G146="","",ROUNDDOWN(SUM($G$2:$G146)/7+0.999+COUNTIF($F$2:$F146,"&lt;&gt;35mm"),0))</f>
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B147" s="5">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B147" s="4">
         <f t="shared" si="5"/>
         <v>146</v>
       </c>
@@ -5456,13 +5088,13 @@
       <c r="G147">
         <v>7</v>
       </c>
-      <c r="H147" s="4">
+      <c r="H147" s="3">
         <f>IF(G147="","",ROUNDDOWN(SUM($G$2:$G147)/7+0.999+COUNTIF($F$2:$F147,"&lt;&gt;35mm"),0))</f>
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B148" s="5">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B148" s="4">
         <f t="shared" si="5"/>
         <v>147</v>
       </c>
@@ -5482,24 +5114,21 @@
       <c r="G148">
         <v>4</v>
       </c>
-      <c r="H148" s="4">
+      <c r="H148" s="3">
         <f>IF(G148="","",ROUNDDOWN(SUM($G$2:$G148)/7+0.999+COUNTIF($F$2:$F148,"&lt;&gt;35mm"),0))</f>
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149" s="5">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B149" s="4">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E149" t="str">
         <f>IF(D149="","",VLOOKUP(D149,$J$2:$K$1000,2,FALSE))</f>
@@ -5511,16 +5140,13 @@
       <c r="G149">
         <v>7</v>
       </c>
-      <c r="H149" s="4">
+      <c r="H149" s="3">
         <f>IF(G149="","",ROUNDDOWN(SUM($G$2:$G149)/7+0.999+COUNTIF($F$2:$F149,"&lt;&gt;35mm"),0))</f>
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150" s="5">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B150" s="4">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
@@ -5540,27 +5166,39 @@
       <c r="G150">
         <v>7</v>
       </c>
-      <c r="H150" s="4">
+      <c r="H150" s="3">
         <f>IF(G150="","",ROUNDDOWN(SUM($G$2:$G150)/7+0.999+COUNTIF($F$2:$F150,"&lt;&gt;35mm"),0))</f>
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B151" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B151" s="4">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>125</v>
+      </c>
+      <c r="D151" t="s">
+        <v>126</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H151" s="4" t="str">
+        <v>白黒</v>
+      </c>
+      <c r="F151" t="s">
+        <v>83</v>
+      </c>
+      <c r="G151">
+        <v>7</v>
+      </c>
+      <c r="H151" s="3">
         <f>IF(G151="","",ROUNDDOWN(SUM($G$2:$G151)/7+0.999+COUNTIF($F$2:$F151,"&lt;&gt;35mm"),0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B152" s="5" t="str">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5568,13 +5206,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H152" s="4" t="str">
+      <c r="H152" s="3" t="str">
         <f>IF(G152="","",ROUNDDOWN(SUM($G$2:$G152)/7+0.999+COUNTIF($F$2:$F152,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B153" s="5" t="str">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5582,13 +5220,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H153" s="4" t="str">
+      <c r="H153" s="3" t="str">
         <f>IF(G153="","",ROUNDDOWN(SUM($G$2:$G153)/7+0.999+COUNTIF($F$2:$F153,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B154" s="5" t="str">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B154" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5596,13 +5234,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H154" s="4" t="str">
+      <c r="H154" s="3" t="str">
         <f>IF(G154="","",ROUNDDOWN(SUM($G$2:$G154)/7+0.999+COUNTIF($F$2:$F154,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B155" s="5" t="str">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B155" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5610,13 +5248,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H155" s="4" t="str">
+      <c r="H155" s="3" t="str">
         <f>IF(G155="","",ROUNDDOWN(SUM($G$2:$G155)/7+0.999+COUNTIF($F$2:$F155,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B156" s="5" t="str">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B156" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5624,13 +5262,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H156" s="4" t="str">
+      <c r="H156" s="3" t="str">
         <f>IF(G156="","",ROUNDDOWN(SUM($G$2:$G156)/7+0.999+COUNTIF($F$2:$F156,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B157" s="5" t="str">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B157" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5638,13 +5276,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H157" s="4" t="str">
+      <c r="H157" s="3" t="str">
         <f>IF(G157="","",ROUNDDOWN(SUM($G$2:$G157)/7+0.999+COUNTIF($F$2:$F157,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B158" s="5" t="str">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B158" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5652,13 +5290,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H158" s="4" t="str">
+      <c r="H158" s="3" t="str">
         <f>IF(G158="","",ROUNDDOWN(SUM($G$2:$G158)/7+0.999+COUNTIF($F$2:$F158,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B159" s="5" t="str">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B159" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5666,13 +5304,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H159" s="4" t="str">
+      <c r="H159" s="3" t="str">
         <f>IF(G159="","",ROUNDDOWN(SUM($G$2:$G159)/7+0.999+COUNTIF($F$2:$F159,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B160" s="5" t="str">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B160" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5680,13 +5318,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H160" s="4" t="str">
+      <c r="H160" s="3" t="str">
         <f>IF(G160="","",ROUNDDOWN(SUM($G$2:$G160)/7+0.999+COUNTIF($F$2:$F160,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B161" s="5" t="str">
+      <c r="B161" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5694,13 +5332,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H161" s="4" t="str">
+      <c r="H161" s="3" t="str">
         <f>IF(G161="","",ROUNDDOWN(SUM($G$2:$G161)/7+0.999+COUNTIF($F$2:$F161,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B162" s="5" t="str">
+      <c r="B162" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5708,13 +5346,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H162" s="4" t="str">
+      <c r="H162" s="3" t="str">
         <f>IF(G162="","",ROUNDDOWN(SUM($G$2:$G162)/7+0.999+COUNTIF($F$2:$F162,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B163" s="5" t="str">
+      <c r="B163" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5722,13 +5360,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H163" s="4" t="str">
+      <c r="H163" s="3" t="str">
         <f>IF(G163="","",ROUNDDOWN(SUM($G$2:$G163)/7+0.999+COUNTIF($F$2:$F163,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B164" s="5" t="str">
+      <c r="B164" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5736,13 +5374,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H164" s="4" t="str">
+      <c r="H164" s="3" t="str">
         <f>IF(G164="","",ROUNDDOWN(SUM($G$2:$G164)/7+0.999+COUNTIF($F$2:$F164,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B165" s="5" t="str">
+      <c r="B165" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5750,13 +5388,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H165" s="4" t="str">
+      <c r="H165" s="3" t="str">
         <f>IF(G165="","",ROUNDDOWN(SUM($G$2:$G165)/7+0.999+COUNTIF($F$2:$F165,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B166" s="5" t="str">
+      <c r="B166" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5764,13 +5402,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H166" s="4" t="str">
+      <c r="H166" s="3" t="str">
         <f>IF(G166="","",ROUNDDOWN(SUM($G$2:$G166)/7+0.999+COUNTIF($F$2:$F166,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B167" s="5" t="str">
+      <c r="B167" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5778,13 +5416,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H167" s="4" t="str">
+      <c r="H167" s="3" t="str">
         <f>IF(G167="","",ROUNDDOWN(SUM($G$2:$G167)/7+0.999+COUNTIF($F$2:$F167,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B168" s="5" t="str">
+      <c r="B168" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5792,13 +5430,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H168" s="4" t="str">
+      <c r="H168" s="3" t="str">
         <f>IF(G168="","",ROUNDDOWN(SUM($G$2:$G168)/7+0.999+COUNTIF($F$2:$F168,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B169" s="5" t="str">
+      <c r="B169" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5806,13 +5444,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H169" s="4" t="str">
+      <c r="H169" s="3" t="str">
         <f>IF(G169="","",ROUNDDOWN(SUM($G$2:$G169)/7+0.999+COUNTIF($F$2:$F169,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B170" s="5" t="str">
+      <c r="B170" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5820,13 +5458,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H170" s="4" t="str">
+      <c r="H170" s="3" t="str">
         <f>IF(G170="","",ROUNDDOWN(SUM($G$2:$G170)/7+0.999+COUNTIF($F$2:$F170,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B171" s="5" t="str">
+      <c r="B171" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5834,13 +5472,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H171" s="4" t="str">
+      <c r="H171" s="3" t="str">
         <f>IF(G171="","",ROUNDDOWN(SUM($G$2:$G171)/7+0.999+COUNTIF($F$2:$F171,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B172" s="5" t="str">
+      <c r="B172" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5848,13 +5486,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H172" s="4" t="str">
+      <c r="H172" s="3" t="str">
         <f>IF(G172="","",ROUNDDOWN(SUM($G$2:$G172)/7+0.999+COUNTIF($F$2:$F172,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B173" s="5" t="str">
+      <c r="B173" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5862,13 +5500,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H173" s="4" t="str">
+      <c r="H173" s="3" t="str">
         <f>IF(G173="","",ROUNDDOWN(SUM($G$2:$G173)/7+0.999+COUNTIF($F$2:$F173,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B174" s="5" t="str">
+      <c r="B174" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5876,13 +5514,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H174" s="4" t="str">
+      <c r="H174" s="3" t="str">
         <f>IF(G174="","",ROUNDDOWN(SUM($G$2:$G174)/7+0.999+COUNTIF($F$2:$F174,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B175" s="5" t="str">
+      <c r="B175" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5890,13 +5528,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H175" s="4" t="str">
+      <c r="H175" s="3" t="str">
         <f>IF(G175="","",ROUNDDOWN(SUM($G$2:$G175)/7+0.999+COUNTIF($F$2:$F175,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B176" s="5" t="str">
+      <c r="B176" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5904,13 +5542,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H176" s="4" t="str">
+      <c r="H176" s="3" t="str">
         <f>IF(G176="","",ROUNDDOWN(SUM($G$2:$G176)/7+0.999+COUNTIF($F$2:$F176,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B177" s="5" t="str">
+      <c r="B177" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5918,13 +5556,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H177" s="4" t="str">
+      <c r="H177" s="3" t="str">
         <f>IF(G177="","",ROUNDDOWN(SUM($G$2:$G177)/7+0.999+COUNTIF($F$2:$F177,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B178" s="5" t="str">
+      <c r="B178" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5932,13 +5570,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H178" s="4" t="str">
+      <c r="H178" s="3" t="str">
         <f>IF(G178="","",ROUNDDOWN(SUM($G$2:$G178)/7+0.999+COUNTIF($F$2:$F178,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B179" s="5" t="str">
+      <c r="B179" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5946,13 +5584,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H179" s="4" t="str">
+      <c r="H179" s="3" t="str">
         <f>IF(G179="","",ROUNDDOWN(SUM($G$2:$G179)/7+0.999+COUNTIF($F$2:$F179,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B180" s="5" t="str">
+      <c r="B180" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5960,13 +5598,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H180" s="4" t="str">
+      <c r="H180" s="3" t="str">
         <f>IF(G180="","",ROUNDDOWN(SUM($G$2:$G180)/7+0.999+COUNTIF($F$2:$F180,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B181" s="5" t="str">
+      <c r="B181" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5974,13 +5612,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H181" s="4" t="str">
+      <c r="H181" s="3" t="str">
         <f>IF(G181="","",ROUNDDOWN(SUM($G$2:$G181)/7+0.999+COUNTIF($F$2:$F181,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B182" s="5" t="str">
+      <c r="B182" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -5988,13 +5626,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H182" s="4" t="str">
+      <c r="H182" s="3" t="str">
         <f>IF(G182="","",ROUNDDOWN(SUM($G$2:$G182)/7+0.999+COUNTIF($F$2:$F182,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B183" s="5" t="str">
+      <c r="B183" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6002,13 +5640,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H183" s="4" t="str">
+      <c r="H183" s="3" t="str">
         <f>IF(G183="","",ROUNDDOWN(SUM($G$2:$G183)/7+0.999+COUNTIF($F$2:$F183,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B184" s="5" t="str">
+      <c r="B184" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6016,13 +5654,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H184" s="4" t="str">
+      <c r="H184" s="3" t="str">
         <f>IF(G184="","",ROUNDDOWN(SUM($G$2:$G184)/7+0.999+COUNTIF($F$2:$F184,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B185" s="5" t="str">
+      <c r="B185" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6030,13 +5668,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H185" s="4" t="str">
+      <c r="H185" s="3" t="str">
         <f>IF(G185="","",ROUNDDOWN(SUM($G$2:$G185)/7+0.999+COUNTIF($F$2:$F185,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B186" s="5" t="str">
+      <c r="B186" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6044,13 +5682,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H186" s="4" t="str">
+      <c r="H186" s="3" t="str">
         <f>IF(G186="","",ROUNDDOWN(SUM($G$2:$G186)/7+0.999+COUNTIF($F$2:$F186,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B187" s="5" t="str">
+      <c r="B187" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6058,13 +5696,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H187" s="4" t="str">
+      <c r="H187" s="3" t="str">
         <f>IF(G187="","",ROUNDDOWN(SUM($G$2:$G187)/7+0.999+COUNTIF($F$2:$F187,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B188" s="5" t="str">
+      <c r="B188" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6072,13 +5710,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H188" s="4" t="str">
+      <c r="H188" s="3" t="str">
         <f>IF(G188="","",ROUNDDOWN(SUM($G$2:$G188)/7+0.999+COUNTIF($F$2:$F188,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B189" s="5" t="str">
+      <c r="B189" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6086,13 +5724,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H189" s="4" t="str">
+      <c r="H189" s="3" t="str">
         <f>IF(G189="","",ROUNDDOWN(SUM($G$2:$G189)/7+0.999+COUNTIF($F$2:$F189,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B190" s="5" t="str">
+      <c r="B190" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6100,13 +5738,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H190" s="4" t="str">
+      <c r="H190" s="3" t="str">
         <f>IF(G190="","",ROUNDDOWN(SUM($G$2:$G190)/7+0.999+COUNTIF($F$2:$F190,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B191" s="5" t="str">
+      <c r="B191" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6114,13 +5752,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H191" s="4" t="str">
+      <c r="H191" s="3" t="str">
         <f>IF(G191="","",ROUNDDOWN(SUM($G$2:$G191)/7+0.999+COUNTIF($F$2:$F191,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B192" s="5" t="str">
+      <c r="B192" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6128,13 +5766,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H192" s="4" t="str">
+      <c r="H192" s="3" t="str">
         <f>IF(G192="","",ROUNDDOWN(SUM($G$2:$G192)/7+0.999+COUNTIF($F$2:$F192,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B193" s="5" t="str">
+      <c r="B193" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6142,13 +5780,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H193" s="4" t="str">
+      <c r="H193" s="3" t="str">
         <f>IF(G193="","",ROUNDDOWN(SUM($G$2:$G193)/7+0.999+COUNTIF($F$2:$F193,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B194" s="5" t="str">
+      <c r="B194" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6156,13 +5794,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H194" s="4" t="str">
+      <c r="H194" s="3" t="str">
         <f>IF(G194="","",ROUNDDOWN(SUM($G$2:$G194)/7+0.999+COUNTIF($F$2:$F194,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B195" s="5" t="str">
+      <c r="B195" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6170,13 +5808,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H195" s="4" t="str">
+      <c r="H195" s="3" t="str">
         <f>IF(G195="","",ROUNDDOWN(SUM($G$2:$G195)/7+0.999+COUNTIF($F$2:$F195,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B196" s="5" t="str">
+      <c r="B196" s="4" t="str">
         <f t="shared" ref="B196:B199" si="7">IF(C196&lt;&gt;"",B195+1,"")</f>
         <v/>
       </c>
@@ -6184,13 +5822,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H196" s="4" t="str">
+      <c r="H196" s="3" t="str">
         <f>IF(G196="","",ROUNDDOWN(SUM($G$2:$G196)/7+0.999+COUNTIF($F$2:$F196,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B197" s="5" t="str">
+      <c r="B197" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6198,13 +5836,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H197" s="4" t="str">
+      <c r="H197" s="3" t="str">
         <f>IF(G197="","",ROUNDDOWN(SUM($G$2:$G197)/7+0.999+COUNTIF($F$2:$F197,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B198" s="5" t="str">
+      <c r="B198" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6212,13 +5850,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H198" s="4" t="str">
+      <c r="H198" s="3" t="str">
         <f>IF(G198="","",ROUNDDOWN(SUM($G$2:$G198)/7+0.999+COUNTIF($F$2:$F198,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B199" s="5" t="str">
+      <c r="B199" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6226,13 +5864,13 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H199" s="4" t="str">
+      <c r="H199" s="3" t="str">
         <f>IF(G199="","",ROUNDDOWN(SUM($G$2:$G199)/7+0.999+COUNTIF($F$2:$F199,"&lt;&gt;35mm"),0))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H199"/>
+  <autoFilter ref="B1:H1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
